--- a/trend_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
+++ b/trend_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.976730209576497</v>
+        <v>0.023269790423503</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.999960101060297</v>
+        <v>3.98989397030203e-05</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.770248286198706</v>
+        <v>0.229751713801294</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.999880318811085</v>
+        <v>0.000119681188915</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2788,6 +2788,1094 @@
         </is>
       </c>
       <c r="W26" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.989349444641127</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.462121212121212</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.030505245759388</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.07386705947343079</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0034456614820229</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1.41884863997153</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.018445571658645</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.726744186046512</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0299876847290641</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0488949713316476</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.004084912259826</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.277663747491334</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Extremely unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.434773471147703</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0114285714285714</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.211428571428571</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0002496582365003</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0002897303225216</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0176173564516578</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0228571428571429</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.457142857142857</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>32</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.823281880437212</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.98191510616664</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.57275587636629</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.984839650660441</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.963855421686747</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0542168674698795</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.656188116906829</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.558441558441558</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.84382206796314e-06</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0128205128205128</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.83974358974359</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1415</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0075498138592398</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0049100796661182</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0100600771979005</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.33555749769603</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.211210835966591</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.560693641618497</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0067985830695915</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0215563985534837</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0063530370407896</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.0913788046988112</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.41970598493725e-09</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.657142857142857</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0076492146596858</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0056379712724922</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.009836810432115799</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.46372475691847</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.08059380733724e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0114285714285714</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.377142857142857</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0070511583011583</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0044219128329297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0096260458884536</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.77067288831995</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.900272492061399</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.262857142857143</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0002218697286629</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0004996580027359</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.792391888081985</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at d/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.009770091966219099</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.737142857142857</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0292666187354757</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0099829589085513</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0465745966468202</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.30445816814769</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1812051.004</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5632425.247</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
+++ b/trend_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.023269790423503</v>
+        <v>0.002019381712256</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.79</v>
+        <v>10.775</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.08112286597331241</v>
+        <v>-0.09790383340009361</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.159020408163265</v>
+        <v>-0.157487816618039</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0280166809058339</v>
+        <v>-0.0548224434697083</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.751833790299467</v>
+        <v>-0.908620263573955</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0009725183200363</v>
+        <v>0.270456892128368</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.448275862068966</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0023717532467532</v>
+        <v>0.0004969387755102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0010679286316713</v>
+        <v>-0.000801562657702</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0038492388758782</v>
+        <v>0.0018635204081632</v>
       </c>
       <c r="N3" t="n">
-        <v>13.1764069264069</v>
+        <v>2.36637512147716</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.910749235806933</v>
+        <v>0.897861158013099</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H4" t="n">
-        <v>0.603448275862069</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>63.5</v>
+        <v>58.5</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.52810733686114</v>
+        <v>-3.22329527783537</v>
       </c>
       <c r="L4" t="n">
-        <v>-12.0445410380554</v>
+        <v>-8.862822892216411</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0272156511837633</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.13087769584431</v>
+        <v>-5.50990645783824</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -847,10 +847,10 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.704537511157444</v>
+        <v>0.995565864262662</v>
       </c>
       <c r="G6" t="n">
-        <v>0.672413793103448</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="H6" t="n">
         <v>0.103448275862069</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1016,31 +1016,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.999999960067956</v>
+        <v>0.999999018569513</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H7" t="n">
-        <v>0.879310344827586</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1535</v>
+        <v>0.145</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0293068350668648</v>
+        <v>-0.0219549180327869</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.037717042347398</v>
+        <v>-0.0295740116040875</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0205786880569191</v>
+        <v>-0.0146645405439593</v>
       </c>
       <c r="N7" t="n">
-        <v>-19.0924006950259</v>
+        <v>-15.1413227812323</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.98989397030203e-05</v>
+        <v>0.0002738578250129</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8947368421052631</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.3</v>
+        <v>7.15</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.174027282309064</v>
+        <v>-0.153359067403185</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.247132940322235</v>
+        <v>-0.241051015788399</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.106806769841296</v>
+        <v>-0.0829168253412217</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.38393537409677</v>
+        <v>-2.14488206158301</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9999999726921051</v>
+        <v>0.999998721510611</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.161</v>
+        <v>0.152</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0298163265306123</v>
+        <v>-0.0209272345301757</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0381349438563569</v>
+        <v>-0.0285697990050506</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.021664193243803</v>
+        <v>-0.0138699309466574</v>
       </c>
       <c r="N9" t="n">
-        <v>-18.51945747243</v>
+        <v>-13.767917454063</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1281,35 +1281,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0029076509818403</v>
+        <v>0.999806219697978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.224137931034483</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.241379310344828</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0.18</v>
       </c>
       <c r="K10" t="n">
-        <v>0.498521383075523</v>
+        <v>-0.0198146473779385</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0.0292700742074843</v>
       </c>
       <c r="M10" t="n">
-        <v>0.910091362126246</v>
+        <v>-0.009637675660177701</v>
       </c>
       <c r="N10" t="n">
-        <v>24.9260691537762</v>
+        <v>-11.0081374321881</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1361,14 +1361,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.999999951550628</v>
+        <v>0.0128776242692414</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.448275862068966</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.185</v>
+        <v>0.0305</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0388188405797101</v>
+        <v>0.0020004768320851</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0495428590450255</v>
+        <v>0.0006620527595665</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0283426436888079</v>
+        <v>0.0036740583970765</v>
       </c>
       <c r="N11" t="n">
-        <v>-20.9831570701136</v>
+        <v>6.55894043306594</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.32147743013149e-07</v>
+        <v>0.104803386241078</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.517241379310345</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.028</v>
+        <v>1.48</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0040862736660929</v>
+        <v>0.0727078454332552</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0028463513003362</v>
+        <v>-0.0235639187604771</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0055706670506839</v>
+        <v>0.193548360156579</v>
       </c>
       <c r="N12" t="n">
-        <v>14.5938345217605</v>
+        <v>4.91269225900373</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1543,46 +1543,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.248995557478395</v>
+        <v>0.543209819566815</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.477611940298507</v>
       </c>
       <c r="H13" t="n">
-        <v>0.862068965517241</v>
+        <v>0.5970149253731341</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0384726793943384</v>
+        <v>-0.179363839285714</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0581495622657727</v>
+        <v>-0.253219537815126</v>
       </c>
       <c r="M13" t="n">
-        <v>0.153225587397568</v>
+        <v>-0.0798811980945793</v>
       </c>
       <c r="N13" t="n">
-        <v>2.61718907444479</v>
+        <v>-8.15290178571429</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1634,14 +1634,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.972798182877521</v>
+        <v>0.246094434707384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.41025641025641</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.564102564102564</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>10.725</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0781283422459892</v>
+        <v>-0.0158696586686696</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.160549450549451</v>
+        <v>-0.0513793063869961</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.0225947809288934</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.5512882839086</v>
+        <v>-0.147968845395521</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1725,46 +1725,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.229751713801294</v>
+        <v>0.413354018155951</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.73728813559322</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.775</v>
+        <v>0.019</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0163586664772011</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0474653859507435</v>
+        <v>-0.0004060589216231</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0172568868340516</v>
+        <v>0.0005217857142857</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.15182057055407</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.288871079594433</v>
+        <v>0.0003909776596098</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H16" t="n">
-        <v>0.296610169491525</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0185</v>
+        <v>34</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.90780628545348</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0003008990482141</v>
+        <v>1.25547058976098</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0005997536945812</v>
+        <v>4.28578827969555</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>8.552371427804349</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1907,47 +1907,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0088494463931999</v>
-      </c>
+          <t>&lt; 3 unique values</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="H17" t="n">
-        <v>0.440677966101695</v>
+        <v>0.0272727272727273</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>34</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.26208097344567</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.664949551612547</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.9747550164756</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.65317933366374</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>Impact</t>
@@ -1955,7 +1943,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1974,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1986,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2009,24 +1997,36 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>&lt; 3 unique values</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.999994780881304</v>
+      </c>
       <c r="G18" t="n">
-        <v>0.990909090909091</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0181818181818182</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>Impact</t>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2088,35 +2088,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.999930092014675</v>
+        <v>0.99987104714931</v>
       </c>
       <c r="G19" t="n">
-        <v>0.449152542372881</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11864406779661</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002</v>
+        <v>0.1605</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.008427579990986899</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0001383475467295</v>
+        <v>-0.0121660000543366</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.004648918599164</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.25082865482052</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2183,31 +2183,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5453714644551489</v>
+        <v>2.20643190385061e-08</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.88135593220339</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1595</v>
+        <v>7.44</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0002730274086378</v>
+        <v>-0.0601916681098274</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0049800299738267</v>
+        <v>-0.07940217391304361</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0039598425498884</v>
+        <v>-0.0419290635022922</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.17117705870713</v>
+        <v>-0.809027797175099</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2245,11 +2245,7 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2259,7 +2255,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2274,31 +2270,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.000119681188915</v>
+        <v>0.999886758255139</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.58974358974359</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.47</v>
+        <v>0.165</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0385667701863354</v>
+        <v>-0.008578909266409199</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0575260106146371</v>
+        <v>-0.0119629001896354</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0214921908724905</v>
+        <v>-0.0047208583796257</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.51628875751453</v>
+        <v>-5.19933894933895</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2307,7 +2303,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2336,7 +2332,11 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2361,31 +2361,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5973931211304651</v>
+        <v>0.999999942981867</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.165</v>
+        <v>0.22</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0004174285714285</v>
+        <v>-0.0125948275862069</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0053519951910483</v>
+        <v>-0.0164234491084524</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003551558207652</v>
+        <v>-0.0091541353383458</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.252987012987013</v>
+        <v>-5.72492163009404</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2448,35 +2448,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.337490770975352</v>
+        <v>0.08158413444959491</v>
       </c>
       <c r="G23" t="n">
-        <v>0.203389830508475</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.169491525423729</v>
+        <v>0.347457627118644</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0.028</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0004899396378269</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.109118424420983</v>
+        <v>0.0010669668737927</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.74978442081058</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2543,31 +2543,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.997368426327136</v>
+        <v>0.000134883954401</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.491525423728814</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2165</v>
+        <v>1.375</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0076358885017421</v>
+        <v>0.07905844155844161</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0119389186290589</v>
+        <v>0.0434821428571429</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0031539534019568</v>
+        <v>0.115478175215159</v>
       </c>
       <c r="N24" t="n">
-        <v>-3.52696928486936</v>
+        <v>5.74970484061393</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2619,46 +2619,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0989336407501737</v>
+        <v>0.967136537755215</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.262295081967213</v>
       </c>
       <c r="H25" t="n">
-        <v>0.347457627118644</v>
+        <v>0.491803278688525</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>0.027</v>
+        <v>2.15</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004498152709359</v>
+        <v>-0.0470077220077219</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.0958067195970501</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0010026167889651</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.665982484948</v>
+        <v>-2.18640567477776</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2710,14 +2710,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2725,31 +2725,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0048136367667232</v>
+        <v>0.11640705202741</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.822033898305085</v>
+        <v>0.728323699421965</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.365</v>
+        <v>10.76</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0581917153478491</v>
+        <v>-0.012482911825017</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0192396829446238</v>
+        <v>-0.0312649986284486</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0951517170567143</v>
+        <v>0.0059309314907766</v>
       </c>
       <c r="N26" t="n">
-        <v>4.26312932951276</v>
+        <v>-0.116012191682315</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2801,46 +2801,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.989349444641127</v>
+        <v>0.576357528315585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.462121212121212</v>
+        <v>0.210227272727273</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.15</v>
+        <v>0.019</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.030505245759388</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.07386705947343079</v>
+        <v>-0.0002922788463028</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0034456614820229</v>
+        <v>0.0002261018402635</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.41884863997153</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.018445571658645</v>
+        <v>0.0003850812690773</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0284090909090909</v>
       </c>
       <c r="H28" t="n">
-        <v>0.726744186046512</v>
+        <v>0.448863636363636</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>10.8</v>
+        <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0299876847290641</v>
+        <v>1.42131699351296</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0488949713316476</v>
+        <v>0.613370102712573</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.004084912259826</v>
+        <v>2.40491535294317</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.277663747491334</v>
+        <v>4.73772331170985</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2983,43 +2983,43 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.434773471147703</v>
+        <v>0.911671578244364</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0114285714285714</v>
+        <v>0.964071856287425</v>
       </c>
       <c r="H29" t="n">
-        <v>0.211428571428571</v>
+        <v>0.0538922155688623</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0002897303225216</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,46 +3074,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0176173564516578</v>
+        <v>0.937521908393836</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0228571428571429</v>
+        <v>0.590361445783133</v>
       </c>
       <c r="H30" t="n">
-        <v>0.457142857142857</v>
+        <v>0.0843373493975904</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>32</v>
+        <v>0.001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.823281880437212</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.98191510616664</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.57275587636629</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3176,35 +3176,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.984839650660441</v>
+        <v>0.0001141736732261</v>
       </c>
       <c r="G31" t="n">
-        <v>0.963855421686747</v>
+        <v>0.0180722891566265</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0542168674698795</v>
+        <v>0.813253012048193</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>0.141</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.005537515470297</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.003308025909408</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0078856131904156</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3.92731593638087</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3267,35 +3267,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.656188116906829</v>
+        <v>0.000227880162996</v>
       </c>
       <c r="G32" t="n">
-        <v>0.558441558441558</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.563218390804598</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001</v>
+        <v>7.435</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0283397991784573</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0409185571848819</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.0148431530618275</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-0.381167440194449</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3333,11 +3333,7 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,7 +3343,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3362,31 +3358,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.84382206796314e-06</v>
+        <v>1.31796096898188e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0128205128205128</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.83974358974359</v>
+        <v>0.710227272727273</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1415</v>
+        <v>0.145</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0075498138592398</v>
+        <v>0.0061689011321809</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0049100796661182</v>
+        <v>0.0041754319647487</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0100600771979005</v>
+        <v>0.008154272958780301</v>
       </c>
       <c r="N33" t="n">
-        <v>5.33555749769603</v>
+        <v>4.2544145739179</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3426,7 +3422,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3434,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3453,31 +3449,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.211210835966591</v>
+        <v>0.0008151279092912</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H34" t="n">
-        <v>0.560693641618497</v>
+        <v>0.375</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>7.44</v>
+        <v>0.19</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0067985830695915</v>
+        <v>0.0052196680676775</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0215563985534837</v>
+        <v>0.0025188847780596</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0063530370407896</v>
+        <v>0.0077951129851257</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0913788046988112</v>
+        <v>2.74719371983027</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3482,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3515,7 +3511,11 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3525,46 +3525,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.41970598493725e-09</v>
+        <v>0.378010270835808</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.657142857142857</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.14</v>
+        <v>0.028</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0076492146596858</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0056379712724922</v>
+        <v>-0.0002489861160868</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009836810432115799</v>
+        <v>0.0003744873547505</v>
       </c>
       <c r="N35" t="n">
-        <v>5.46372475691847</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3616,14 +3616,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3631,31 +3631,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.08059380733724e-05</v>
+        <v>0.0004287770782075</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0114285714285714</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.377142857142857</v>
+        <v>0.744318181818182</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.187</v>
+        <v>1.32</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0070511583011583</v>
+        <v>0.0397913988012818</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0044219128329297</v>
+        <v>0.0215654548056798</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0096260458884536</v>
+        <v>0.0562409649447489</v>
       </c>
       <c r="N36" t="n">
-        <v>3.77067288831995</v>
+        <v>3.01449990918802</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3694,188 +3694,6 @@
         </is>
       </c>
       <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mangaehuehu at d/s Rangataua STP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.900272492061399</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.262857142857143</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.0002218697286629</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.0004996580027359</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-0.792391888081985</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Very likely improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1812051.004</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5632425.247</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Whau_1c</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangaehuehu at d/s Rangataua STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.009770091966219099</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.737142857142857</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0292666187354757</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0099829589085513</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0465745966468202</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.30445816814769</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1812051.004</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5632425.247</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Whau_1c</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
+++ b/trend_results/Rivers/MangaehuehuatdsRangatauaSTP_b9406cc740.xlsx
@@ -133,49 +133,49 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -654,31 +654,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.002019381712256</v>
+        <v>0.080652113241755</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.896551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.775</v>
+        <v>10.695</v>
       </c>
       <c r="K2">
-        <v>-0.09790383340009361</v>
+        <v>-0.0819675024680266</v>
       </c>
       <c r="L2">
-        <v>-0.157487816618039</v>
+        <v>-0.121194465814159</v>
       </c>
       <c r="M2">
-        <v>-0.0548224434697083</v>
+        <v>0.0115400490746459</v>
       </c>
       <c r="N2">
-        <v>-0.908620263573955</v>
+        <v>-0.766409560243353</v>
       </c>
       <c r="O2" t="s">
         <v>41</v>
@@ -725,7 +725,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.270456892128368</v>
+        <v>0.17686652342261</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
-        <v>0.0004969387755102</v>
+        <v>0.0007349094567404</v>
       </c>
       <c r="L3">
-        <v>-0.000801562657702</v>
+        <v>-0.0005157369551843</v>
       </c>
       <c r="M3">
-        <v>0.0018635204081632</v>
+        <v>0.0018873751749885</v>
       </c>
       <c r="N3">
-        <v>2.36637512147716</v>
+        <v>3.67454728370222</v>
       </c>
       <c r="O3" t="s">
         <v>41</v>
@@ -790,37 +790,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.897861158013099</v>
+        <v>0.915645824109509</v>
       </c>
       <c r="G4">
         <v>0.0344827586206897</v>
       </c>
       <c r="H4">
-        <v>0.655172413793103</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>58.5</v>
+        <v>41.5</v>
       </c>
       <c r="K4">
-        <v>-3.22329527783537</v>
+        <v>-4.84891774891775</v>
       </c>
       <c r="L4">
-        <v>-8.862822892216411</v>
+        <v>-12.4233608200159</v>
       </c>
       <c r="M4">
-        <v>0.0272156511837633</v>
+        <v>0.117862593020346</v>
       </c>
       <c r="N4">
-        <v>-5.50990645783824</v>
+        <v>-11.6841391540187</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -867,10 +867,10 @@
         <v>37</v>
       </c>
       <c r="G5">
-        <v>0.981132075471698</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="H5">
-        <v>0.0377358490566038</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <v>0.995565864262662</v>
+        <v>0.998450808301157</v>
       </c>
       <c r="G6">
-        <v>0.741379310344828</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="H6">
-        <v>0.103448275862069</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -991,31 +991,31 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.999999018569513</v>
+        <v>0.999902071445426</v>
       </c>
       <c r="G7">
-        <v>0.0172413793103448</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H7">
-        <v>0.827586206896552</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.145</v>
+        <v>0.1295</v>
       </c>
       <c r="K7">
-        <v>-0.0219549180327869</v>
+        <v>-0.0152455908289242</v>
       </c>
       <c r="L7">
-        <v>-0.0295740116040875</v>
+        <v>-0.0225720720576045</v>
       </c>
       <c r="M7">
-        <v>-0.0146645405439593</v>
+        <v>-0.0086912913448633</v>
       </c>
       <c r="N7">
-        <v>-15.1413227812323</v>
+        <v>-11.7726570107522</v>
       </c>
       <c r="O7" t="s">
         <v>41</v>
@@ -1062,37 +1062,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0002738578250129</v>
+        <v>0.020426441267583</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.87719298245614</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.15</v>
+        <v>7.05</v>
       </c>
       <c r="K8">
-        <v>-0.153359067403185</v>
+        <v>-0.101054557596903</v>
       </c>
       <c r="L8">
-        <v>-0.241051015788399</v>
+        <v>-0.177633803128132</v>
       </c>
       <c r="M8">
-        <v>-0.0829168253412217</v>
+        <v>-0.0220460937757888</v>
       </c>
       <c r="N8">
-        <v>-2.14488206158301</v>
+        <v>-1.43339798009792</v>
       </c>
       <c r="O8" t="s">
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>1812051.004</v>
@@ -1130,31 +1130,31 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.999998721510611</v>
+        <v>0.999861753396185</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H9">
-        <v>0.827586206896552</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.152</v>
+        <v>0.1375</v>
       </c>
       <c r="K9">
-        <v>-0.0209272345301757</v>
+        <v>-0.0148296992481203</v>
       </c>
       <c r="L9">
-        <v>-0.0285697990050506</v>
+        <v>-0.0220033073847503</v>
       </c>
       <c r="M9">
-        <v>-0.0138699309466574</v>
+        <v>-0.0082202242070113</v>
       </c>
       <c r="N9">
-        <v>-13.767917454063</v>
+        <v>-10.7852358168148</v>
       </c>
       <c r="O9" t="s">
         <v>41</v>
@@ -1201,31 +1201,31 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.999806219697978</v>
+        <v>0.99207709798397</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.396551724137931</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K10">
-        <v>-0.0198146473779385</v>
+        <v>-0.011161191749427</v>
       </c>
       <c r="L10">
-        <v>-0.0292700742074843</v>
+        <v>-0.0191628199748134</v>
       </c>
       <c r="M10">
-        <v>-0.009637675660177701</v>
+        <v>-0.0029389048951524</v>
       </c>
       <c r="N10">
-        <v>-11.0081374321881</v>
+        <v>-6.9757448433919</v>
       </c>
       <c r="O10" t="s">
         <v>41</v>
@@ -1272,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0128776242692414</v>
+        <v>0.32780711501237</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1284,25 +1284,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0305</v>
+        <v>0.0295</v>
       </c>
       <c r="K11">
-        <v>0.0020004768320851</v>
+        <v>0.0004168972474893</v>
       </c>
       <c r="L11">
-        <v>0.0006620527595665</v>
+        <v>-0.0010250484219478</v>
       </c>
       <c r="M11">
-        <v>0.0036740583970765</v>
+        <v>0.0016624262988721</v>
       </c>
       <c r="N11">
-        <v>6.55894043306594</v>
+        <v>1.41321100843849</v>
       </c>
       <c r="O11" t="s">
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>1812051.004</v>
@@ -1343,37 +1343,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.104803386241078</v>
+        <v>0.610946247240342</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.844827586206897</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.48</v>
+        <v>1.545</v>
       </c>
       <c r="K12">
-        <v>0.0727078454332552</v>
+        <v>-0.0159081010452961</v>
       </c>
       <c r="L12">
-        <v>-0.0235639187604771</v>
+        <v>-0.120434495456848</v>
       </c>
       <c r="M12">
-        <v>0.193548360156579</v>
+        <v>0.120444129829206</v>
       </c>
       <c r="N12">
-        <v>4.91269225900373</v>
+        <v>-1.0296505530936</v>
       </c>
       <c r="O12" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1812051.004</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0.543209819566815</v>
+        <v>0.214878852718658</v>
       </c>
       <c r="G13">
-        <v>0.477611940298507</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="H13">
-        <v>0.5970149253731341</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I13">
         <v>15</v>
       </c>
       <c r="J13">
-        <v>2.2</v>
+        <v>2.175</v>
       </c>
       <c r="K13">
-        <v>-0.179363839285714</v>
+        <v>-0.226926197071626</v>
       </c>
       <c r="L13">
-        <v>-0.253219537815126</v>
+        <v>-0.291826163733267</v>
       </c>
       <c r="M13">
-        <v>-0.0798811980945793</v>
+        <v>-0.115571320589611</v>
       </c>
       <c r="N13">
-        <v>-8.15290178571429</v>
+        <v>-10.4333883711093</v>
       </c>
       <c r="O13" t="s">
         <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q13">
         <v>1812051.004</v>
@@ -1485,37 +1485,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.246094434707384</v>
+        <v>0.07686255993562</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.754237288135593</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.725</v>
+        <v>10.765</v>
       </c>
       <c r="K14">
-        <v>-0.0158696586686696</v>
+        <v>-0.0249063812127723</v>
       </c>
       <c r="L14">
-        <v>-0.0513793063869961</v>
+        <v>-0.0604021133992826</v>
       </c>
       <c r="M14">
-        <v>0.0225947809288934</v>
+        <v>0.0100283693374675</v>
       </c>
       <c r="N14">
-        <v>-0.147968845395521</v>
+        <v>-0.231364433002994</v>
       </c>
       <c r="O14" t="s">
         <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>1812051.004</v>
@@ -1550,19 +1550,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>0.413354018155951</v>
+        <v>0.364717032508619</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.288135593220339</v>
+        <v>0.279661016949153</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.0004060589216231</v>
+        <v>-0.0003232017150499</v>
       </c>
       <c r="M15">
-        <v>0.0005217857142857</v>
+        <v>0.0004969387755102</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0003909776596098</v>
+        <v>0.0398450600911598</v>
       </c>
       <c r="G16">
         <v>0.0338983050847458</v>
       </c>
       <c r="H16">
-        <v>0.415254237288136</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1642,22 +1642,22 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>2.90780628545348</v>
+        <v>1.20082191780822</v>
       </c>
       <c r="L16">
-        <v>1.25547058976098</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>4.28578827969555</v>
+        <v>2.99551684927924</v>
       </c>
       <c r="N16">
-        <v>8.552371427804349</v>
+        <v>3.53182917002417</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1812051.004</v>
@@ -1698,10 +1698,10 @@
         <v>37</v>
       </c>
       <c r="G17">
-        <v>0.981818181818182</v>
+        <v>0.990909090909091</v>
       </c>
       <c r="H17">
-        <v>0.0272727272727273</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1751,13 +1751,13 @@
         <v>38</v>
       </c>
       <c r="F18">
-        <v>0.999994780881304</v>
+        <v>0.999995997867101</v>
       </c>
       <c r="G18">
-        <v>0.542372881355932</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="H18">
-        <v>0.110169491525424</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1822,31 +1822,31 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.99987104714931</v>
+        <v>0.9999999999950711</v>
       </c>
       <c r="G19">
-        <v>0.008474576271186401</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H19">
-        <v>0.847457627118644</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.1605</v>
+        <v>0.1565</v>
       </c>
       <c r="K19">
-        <v>-0.008427579990986899</v>
+        <v>-0.0143897738951696</v>
       </c>
       <c r="L19">
-        <v>-0.0121660000543366</v>
+        <v>-0.0178548140620162</v>
       </c>
       <c r="M19">
-        <v>-0.004648918599164</v>
+        <v>-0.0111103396713837</v>
       </c>
       <c r="N19">
-        <v>-5.25082865482052</v>
+        <v>-9.194743702983761</v>
       </c>
       <c r="O19" t="s">
         <v>41</v>
@@ -1893,37 +1893,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>2.20643190385061E-08</v>
+        <v>8.434897225129129E-11</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.606837606837607</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.44</v>
+        <v>7.41</v>
       </c>
       <c r="K20">
-        <v>-0.0601916681098274</v>
+        <v>-0.0777879451893095</v>
       </c>
       <c r="L20">
-        <v>-0.07940217391304361</v>
+        <v>-0.100071008219768</v>
       </c>
       <c r="M20">
-        <v>-0.0419290635022922</v>
+        <v>-0.0587808640908637</v>
       </c>
       <c r="N20">
-        <v>-0.809027797175099</v>
+        <v>-1.04976984061146</v>
       </c>
       <c r="O20" t="s">
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1812051.004</v>
@@ -1961,31 +1961,31 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.999886758255139</v>
+        <v>0.999999999991415</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H21">
-        <v>0.677966101694915</v>
+        <v>0.652542372881356</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="K21">
-        <v>-0.008578909266409199</v>
+        <v>-0.0142240215264188</v>
       </c>
       <c r="L21">
-        <v>-0.0119629001896354</v>
+        <v>-0.0176378371953369</v>
       </c>
       <c r="M21">
-        <v>-0.0047208583796257</v>
+        <v>-0.0109210725450724</v>
       </c>
       <c r="N21">
-        <v>-5.19933894933895</v>
+        <v>-8.673183857572431</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
@@ -2032,31 +2032,31 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.999999942981867</v>
+        <v>0.999999999998984</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.415254237288136</v>
+        <v>0.313559322033898</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.22</v>
+        <v>0.205</v>
       </c>
       <c r="K22">
-        <v>-0.0125948275862069</v>
+        <v>-0.016831797235023</v>
       </c>
       <c r="L22">
-        <v>-0.0164234491084524</v>
+        <v>-0.0205385809509555</v>
       </c>
       <c r="M22">
-        <v>-0.0091541353383458</v>
+        <v>-0.0133791208791209</v>
       </c>
       <c r="N22">
-        <v>-5.72492163009404</v>
+        <v>-8.21063279757221</v>
       </c>
       <c r="O22" t="s">
         <v>41</v>
@@ -2097,37 +2097,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.08158413444959491</v>
+        <v>0.0005956202425526</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.347457627118644</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="K23">
-        <v>0.0004899396378269</v>
+        <v>0.0009898664776691001</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0004283703099435</v>
       </c>
       <c r="M23">
-        <v>0.0010669668737927</v>
+        <v>0.0013276212877569</v>
       </c>
       <c r="N23">
-        <v>1.74978442081058</v>
+        <v>3.66617213951542</v>
       </c>
       <c r="O23" t="s">
         <v>41</v>
@@ -2174,37 +2174,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.000134883954401</v>
+        <v>0.0003687320381606</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.796610169491525</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.375</v>
+        <v>1.385</v>
       </c>
       <c r="K24">
-        <v>0.07905844155844161</v>
+        <v>0.0739696223316913</v>
       </c>
       <c r="L24">
-        <v>0.0434821428571429</v>
+        <v>0.0381334625085618</v>
       </c>
       <c r="M24">
-        <v>0.115478175215159</v>
+        <v>0.115213502535377</v>
       </c>
       <c r="N24">
-        <v>5.74970484061393</v>
+        <v>5.34076695535677</v>
       </c>
       <c r="O24" t="s">
         <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q24">
         <v>1812051.004</v>
@@ -2242,40 +2242,40 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>0.967136537755215</v>
+        <v>0.992696887190236</v>
       </c>
       <c r="G25">
-        <v>0.262295081967213</v>
+        <v>0.288288288288288</v>
       </c>
       <c r="H25">
-        <v>0.491803278688525</v>
+        <v>0.495495495495495</v>
       </c>
       <c r="I25">
         <v>15</v>
       </c>
       <c r="J25">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K25">
-        <v>-0.0470077220077219</v>
+        <v>-0.0317302123552123</v>
       </c>
       <c r="L25">
-        <v>-0.0958067195970501</v>
+        <v>-0.0820134399327707</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0108098946109283</v>
       </c>
       <c r="N25">
-        <v>-2.18640567477776</v>
+        <v>-1.51096249310535</v>
       </c>
       <c r="O25" t="s">
         <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1812051.004</v>
@@ -2316,37 +2316,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.11640705202741</v>
+        <v>0.062554910913744</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.728323699421965</v>
+        <v>0.7159090909090911</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>10.76</v>
+        <v>10.745</v>
       </c>
       <c r="K26">
-        <v>-0.012482911825017</v>
+        <v>-0.0149866682772761</v>
       </c>
       <c r="L26">
-        <v>-0.0312649986284486</v>
+        <v>-0.032272138574172</v>
       </c>
       <c r="M26">
-        <v>0.0059309314907766</v>
+        <v>0.0026862964989191</v>
       </c>
       <c r="N26">
-        <v>-0.116012191682315</v>
+        <v>-0.139475740132863</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q26">
         <v>1812051.004</v>
@@ -2384,10 +2384,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27">
-        <v>0.576357528315585</v>
+        <v>0.417864357397024</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-0.0002922788463028</v>
+        <v>-0.0002162213996844</v>
       </c>
       <c r="M27">
-        <v>0.0002261018402635</v>
+        <v>0.0002784907584904</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.0003850812690773</v>
+        <v>0.0082137625839488</v>
       </c>
       <c r="G28">
         <v>0.0284090909090909</v>
       </c>
       <c r="H28">
-        <v>0.448863636363636</v>
+        <v>0.471590909090909</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2473,22 +2473,22 @@
         <v>30</v>
       </c>
       <c r="K28">
-        <v>1.42131699351296</v>
+        <v>0.844924573883756</v>
       </c>
       <c r="L28">
-        <v>0.613370102712573</v>
+        <v>0.128398820192394</v>
       </c>
       <c r="M28">
-        <v>2.40491535294317</v>
+        <v>1.69105253220902</v>
       </c>
       <c r="N28">
-        <v>4.73772331170985</v>
+        <v>2.81641524627919</v>
       </c>
       <c r="O28" t="s">
         <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1812051.004</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.911671578244364</v>
+        <v>0.894456522475338</v>
       </c>
       <c r="G29">
-        <v>0.964071856287425</v>
+        <v>0.970238095238095</v>
       </c>
       <c r="H29">
-        <v>0.0538922155688623</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -2559,7 +2559,7 @@
         <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1812051.004</v>
@@ -2600,13 +2600,13 @@
         <v>38</v>
       </c>
       <c r="F30">
-        <v>0.937521908393836</v>
+        <v>0.992708473860903</v>
       </c>
       <c r="G30">
-        <v>0.590361445783133</v>
+        <v>0.607954545454545</v>
       </c>
       <c r="H30">
-        <v>0.0843373493975904</v>
+        <v>0.0795454545454545</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1812051.004</v>
@@ -2671,37 +2671,37 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.0001141736732261</v>
+        <v>0.0200672074646392</v>
       </c>
       <c r="G31">
-        <v>0.0180722891566265</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H31">
-        <v>0.813253012048193</v>
+        <v>0.7840909090909089</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.141</v>
+        <v>0.13475</v>
       </c>
       <c r="K31">
-        <v>0.005537515470297</v>
+        <v>0.0028259492468497</v>
       </c>
       <c r="L31">
-        <v>0.003308025909408</v>
+        <v>0.0006386390185546</v>
       </c>
       <c r="M31">
-        <v>0.0078856131904156</v>
+        <v>0.0050068127490882</v>
       </c>
       <c r="N31">
-        <v>3.92731593638087</v>
+        <v>2.09717940397013</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1812051.004</v>
@@ -2742,37 +2742,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.000227880162996</v>
+        <v>1.44588008232915E-10</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.563218390804598</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7.435</v>
+        <v>7.44</v>
       </c>
       <c r="K32">
-        <v>-0.0283397991784573</v>
+        <v>-0.0471966977745872</v>
       </c>
       <c r="L32">
-        <v>-0.0409185571848819</v>
+        <v>-0.0596326530612245</v>
       </c>
       <c r="M32">
-        <v>-0.0148431530618275</v>
+        <v>-0.035141670479568</v>
       </c>
       <c r="N32">
-        <v>-0.381167440194449</v>
+        <v>-0.634364217400366</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q32">
         <v>1812051.004</v>
@@ -2810,37 +2810,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>1.31796096898188E-06</v>
+        <v>0.024023551229245</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H33">
         <v>0.710227272727273</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0.145</v>
       </c>
       <c r="K33">
-        <v>0.0061689011321809</v>
+        <v>0.0026210166408942</v>
       </c>
       <c r="L33">
-        <v>0.0041754319647487</v>
+        <v>0.0003908394792199</v>
       </c>
       <c r="M33">
-        <v>0.008154272958780301</v>
+        <v>0.0048563880147508</v>
       </c>
       <c r="N33">
-        <v>4.2544145739179</v>
+        <v>1.80759768337531</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1812051.004</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>0.0008151279092912</v>
+        <v>0.37883994656288</v>
       </c>
       <c r="G34">
         <v>0.0113636363636364</v>
@@ -2896,22 +2896,22 @@
         <v>0.19</v>
       </c>
       <c r="K34">
-        <v>0.0052196680676775</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0.0025188847780596</v>
+        <v>-0.0022131006174959</v>
       </c>
       <c r="M34">
-        <v>0.0077951129851257</v>
+        <v>0.0031805980551131</v>
       </c>
       <c r="N34">
-        <v>2.74719371983027</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
         <v>41</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1812051.004</v>
@@ -2949,40 +2949,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.378010270835808</v>
+        <v>0.07133009408563271</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.272727272727273</v>
+        <v>0.267045454545455</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L35">
-        <v>-0.0002489861160868</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0003744873547505</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.924660135186451</v>
       </c>
       <c r="O35" t="s">
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q35">
         <v>1812051.004</v>
@@ -3023,37 +3023,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0004287770782075</v>
+        <v>0.0023127876630598</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.744318181818182</v>
+        <v>0.738636363636364</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.32</v>
+        <v>1.345</v>
       </c>
       <c r="K36">
-        <v>0.0397913988012818</v>
+        <v>0.0364796823475556</v>
       </c>
       <c r="L36">
-        <v>0.0215654548056798</v>
+        <v>0.0161154629794508</v>
       </c>
       <c r="M36">
-        <v>0.0562409649447489</v>
+        <v>0.0556624220499667</v>
       </c>
       <c r="N36">
-        <v>3.01449990918802</v>
+        <v>2.71224404071046</v>
       </c>
       <c r="O36" t="s">
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q36">
         <v>1812051.004</v>
